--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banana06/Desktop/question-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18626A3-7471-1947-AF66-9F41D5BACB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CB22D-7569-AE4E-8098-5A11BA3C7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23680" windowHeight="17200" xr2:uid="{153752AA-2273-B146-8BE8-8482376B8EC3}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23680" windowHeight="17200" xr2:uid="{153752AA-2273-B146-8BE8-8482376B8EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>quesiton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>q1</t>
   </si>
   <si>
@@ -348,6 +344,10 @@
   </si>
   <si>
     <t>recommendation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -751,475 +751,475 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1246,171 +1246,171 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
